--- a/Documentation/stored_procedures.xlsx
+++ b/Documentation/stored_procedures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\CAPSTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A61661-4CA7-4D66-ADB9-570A4A90C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028470E7-16E0-472A-A675-40D63BFF1F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-15" windowWidth="21600" windowHeight="11235" xr2:uid="{27043DEE-0718-46FA-B0F7-ECC8A58AD113}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{27043DEE-0718-46FA-B0F7-ECC8A58AD113}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>table</t>
   </si>
@@ -72,9 +72,6 @@
     <t>titles</t>
   </si>
   <si>
-    <t>tasks</t>
-  </si>
-  <si>
     <t>task_status</t>
   </si>
   <si>
@@ -136,6 +133,15 @@
   </si>
   <si>
     <t>delete_academicYear_sp</t>
+  </si>
+  <si>
+    <t>new_faculty_sp</t>
+  </si>
+  <si>
+    <t>update_faculty_sp</t>
+  </si>
+  <si>
+    <t>delete_faculty_sp</t>
   </si>
 </sst>
 </file>
@@ -200,13 +206,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,19 +529,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EC1A4-8F1D-44D1-B8F7-EC689751A9AD}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,174 +549,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A2:A4"/>
@@ -718,6 +748,7 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
